--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Tasklist</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Model Collision recognition in Unity</t>
+  </si>
+  <si>
+    <t>Install Vive at home</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,6 +648,9 @@
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Tasklist</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Install Vive at home</t>
+  </si>
+  <si>
+    <t>Find early assets to build with</t>
   </si>
 </sst>
 </file>
@@ -537,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,8 +584,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
+      <c r="A3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>23</v>
@@ -599,7 +602,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>22</v>
@@ -613,7 +616,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
@@ -623,33 +626,40 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -543,7 +543,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,16 +618,16 @@
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>14</v>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>24</v>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Tasklist</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Find early assets to build with</t>
+  </si>
+  <si>
+    <t>Add Centrifugal Forces</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,6 +661,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Tasklist</t>
   </si>
@@ -111,6 +111,21 @@
   </si>
   <si>
     <t>Add Centrifugal Forces</t>
+  </si>
+  <si>
+    <t>Create coal spawner</t>
+  </si>
+  <si>
+    <t>Create gauge assets</t>
+  </si>
+  <si>
+    <t>Have coal gauge effect "temperature"</t>
+  </si>
+  <si>
+    <t>Create Temperature Gauge and Water interaction</t>
+  </si>
+  <si>
+    <t>Create "Steam Engine" simulator</t>
   </si>
 </sst>
 </file>
@@ -217,7 +232,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
@@ -226,6 +241,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -543,18 +560,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -608,10 +625,13 @@
         <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>18</v>
@@ -622,21 +642,33 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>6</v>
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -645,27 +677,31 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>25</v>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -238,11 +238,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -560,28 +560,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
       <c r="F1" t="s">
         <v>1</v>
       </c>
@@ -652,10 +652,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -666,9 +663,6 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -702,6 +696,16 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Tasklist</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Easy to do (0-1 day)</t>
   </si>
   <si>
-    <t>Creating tasklist</t>
-  </si>
-  <si>
     <t>Create Scrum Spreadsheet</t>
   </si>
   <si>
@@ -65,12 +62,6 @@
     <t>Model Throwing Physics in Unity</t>
   </si>
   <si>
-    <t>Create first level design</t>
-  </si>
-  <si>
-    <t>Model first level design in Unity</t>
-  </si>
-  <si>
     <t>Identify outline for game</t>
   </si>
   <si>
@@ -80,15 +71,9 @@
     <t>Somewhat challenging (1-3 days)</t>
   </si>
   <si>
-    <t>Difficult (3+ days)</t>
-  </si>
-  <si>
     <t>Build to executable outside of Unity editor</t>
   </si>
   <si>
-    <t>Create Menu for game</t>
-  </si>
-  <si>
     <t>Find/Record audio elements</t>
   </si>
   <si>
@@ -125,7 +110,49 @@
     <t>Create Temperature Gauge and Water interaction</t>
   </si>
   <si>
-    <t>Create "Steam Engine" simulator</t>
+    <t>Create tasklist</t>
+  </si>
+  <si>
+    <t>Difficult/over time (3+ days)</t>
+  </si>
+  <si>
+    <t>Refactor/comment code</t>
+  </si>
+  <si>
+    <t>Create water spawner</t>
+  </si>
+  <si>
+    <t>Create pump for water</t>
+  </si>
+  <si>
+    <t>Optimize water performance</t>
+  </si>
+  <si>
+    <t>Make Coal Spawner break</t>
+  </si>
+  <si>
+    <t>Update Visuals</t>
+  </si>
+  <si>
+    <t>Work on MPD</t>
+  </si>
+  <si>
+    <t>Create environment assets</t>
+  </si>
+  <si>
+    <t>Spawn environment through code</t>
+  </si>
+  <si>
+    <t>Optimize environment assets</t>
+  </si>
+  <si>
+    <t>Make environment give feel of motion</t>
+  </si>
+  <si>
+    <t>Add eventManager for events</t>
+  </si>
+  <si>
+    <t>Add end of game state</t>
   </si>
 </sst>
 </file>
@@ -560,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,115 +624,176 @@
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="5" t="s">
-        <v>32</v>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shankly\Documents\MMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shankly Cragg\Documents\MMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389B02B2-99E6-47CF-8A31-92ECB01DD9DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,9 +114,6 @@
     <t>Create tasklist</t>
   </si>
   <si>
-    <t>Difficult/over time (3+ days)</t>
-  </si>
-  <si>
     <t>Refactor/comment code</t>
   </si>
   <si>
@@ -153,12 +151,15 @@
   </si>
   <si>
     <t>Add end of game state</t>
+  </si>
+  <si>
+    <t>Difficult/Over time (3+ days)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -586,11 +587,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +650,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -713,22 +714,22 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
@@ -738,32 +739,32 @@
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
@@ -773,17 +774,17 @@
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
